--- a/ExcelFiles/qrcode.xlsx
+++ b/ExcelFiles/qrcode.xlsx
@@ -4,13 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="valid_data" sheetId="1" r:id="rId1"/>
-    <sheet name="blank" sheetId="2" r:id="rId2"/>
-    <sheet name="blank_amt_data" sheetId="3" r:id="rId3"/>
-    <sheet name="blank_desc_data" sheetId="4" r:id="rId4"/>
+    <sheet name="invalid_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,36 +28,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
-    <t>${amount}</t>
+    <t>amount</t>
   </si>
   <si>
-    <t>${description}</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>Payment through QR code</t>
   </si>
   <si>
-    <t>${blank_amount}</t>
+    <t>dharun</t>
   </si>
   <si>
-    <t>${blank_description}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -668,22 +668,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1006,35 +1003,44 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
     <col min="2" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="15.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>100</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1234</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,102 +1051,45 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="19.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>100</v>
+      <c r="D2" s="4">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/qrcode.xlsx
+++ b/ExcelFiles/qrcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="valid_data" sheetId="1" r:id="rId1"/>
@@ -1003,8 +1003,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1053,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
